--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2438.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2438.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.024620491330028</v>
+        <v>2.156126260757446</v>
       </c>
       <c r="B1">
-        <v>2.115381910159007</v>
+        <v>2.533568382263184</v>
       </c>
       <c r="C1">
-        <v>8.885282412155899</v>
+        <v>2.675328969955444</v>
       </c>
       <c r="D1">
-        <v>2.524309417740226</v>
+        <v>3.264136075973511</v>
       </c>
       <c r="E1">
-        <v>0.9882804017909551</v>
+        <v>2.319345235824585</v>
       </c>
     </row>
   </sheetData>
